--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/36.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/36.xlsx
@@ -479,13 +479,13 @@
         <v>-0.0502070949860519</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.605361662913428</v>
+        <v>-1.606391858428319</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06376913781097564</v>
+        <v>0.06010324727746634</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1850754151710566</v>
+        <v>-0.1873797791646408</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.01114380698295871</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.53909703192579</v>
+        <v>-1.542286781675106</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08971369498737487</v>
+        <v>0.08592975301976802</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1867485974969992</v>
+        <v>-0.188689363073563</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.03097887132284813</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.644653902238457</v>
+        <v>-1.648378031479454</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1020178024585824</v>
+        <v>0.09878634120255204</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1838980488683237</v>
+        <v>-0.1864463858257095</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.07162903147553237</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.692784258929589</v>
+        <v>-1.69683893218606</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1450782435600053</v>
+        <v>0.1410015340358365</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.214962890246314</v>
+        <v>-0.2173349370621142</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1149915508326355</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.782153129589239</v>
+        <v>-1.782035865164702</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2329919335420126</v>
+        <v>0.2283485771341756</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2643068156799693</v>
+        <v>-0.265975275948548</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1645652379346458</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.710259019214269</v>
+        <v>-1.708208072299214</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3081198662016944</v>
+        <v>0.3015924089056605</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2760238140189316</v>
+        <v>-0.2765432403289609</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.2216225547997112</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.541035436473672</v>
+        <v>-1.537797679141156</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3777717863383712</v>
+        <v>0.3724405835745257</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2786099274352287</v>
+        <v>-0.2788853807814563</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.2837099564113784</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.183626849647728</v>
+        <v>-1.181478313547152</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4067321641511825</v>
+        <v>0.4030363672543685</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2752021760376127</v>
+        <v>-0.2743742419798085</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.346852489997771</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7851733532051864</v>
+        <v>-0.783621370351584</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4451098983667359</v>
+        <v>0.4418469567282796</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2354361569570721</v>
+        <v>-0.2349214527044068</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.4081969558513632</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2580973102464381</v>
+        <v>-0.2584278542619112</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4152775139607239</v>
+        <v>0.4131887905867579</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1775531777903606</v>
+        <v>-0.1769692166963581</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.4681159062784792</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3142711329277375</v>
+        <v>0.3125176756266085</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2883643522102495</v>
+        <v>0.2870909707411172</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1233675695395844</v>
+        <v>-0.1229551765298036</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.527870832900656</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8979237191825178</v>
+        <v>0.89488901031665</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09209518591790282</v>
+        <v>0.0920463913251425</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.009698204675733962</v>
+        <v>-0.009673020369793152</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5873945359885683</v>
       </c>
       <c r="E14" t="n">
-        <v>1.605505126933786</v>
+        <v>1.597318653483901</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01026193180148006</v>
+        <v>0.01009036371725829</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08802792050846184</v>
+        <v>0.08778709558290283</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6486944262752659</v>
       </c>
       <c r="E15" t="n">
-        <v>2.273038766181802</v>
+        <v>2.2611045532041</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.132065599203892</v>
+        <v>-0.1332382434492611</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2050042995461651</v>
+        <v>0.2048059731368812</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7170554657325124</v>
       </c>
       <c r="E16" t="n">
-        <v>2.874293608270087</v>
+        <v>2.861422853915212</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2585947002887691</v>
+        <v>-0.2602049218498597</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3089210419344365</v>
+        <v>0.3086345704543597</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7978505985362185</v>
       </c>
       <c r="E17" t="n">
-        <v>3.410673678254844</v>
+        <v>3.398128745858077</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.3706318073238308</v>
+        <v>-0.3740741871421154</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3940046455363451</v>
+        <v>0.393820485299153</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8912520672253368</v>
       </c>
       <c r="E18" t="n">
-        <v>3.884817032183371</v>
+        <v>3.870551696887023</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5501722983949937</v>
+        <v>-0.5535406993145772</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4906100691061748</v>
+        <v>0.4907422867123641</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9954272482896867</v>
       </c>
       <c r="E19" t="n">
-        <v>4.260821867917922</v>
+        <v>4.246358206212291</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7521032114666589</v>
+        <v>-0.755699845158831</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6136102193210958</v>
+        <v>0.6127177504793183</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.10854513351694</v>
       </c>
       <c r="E20" t="n">
-        <v>4.535870691231368</v>
+        <v>4.522710317358174</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.9611510519952853</v>
+        <v>-0.9639960915570362</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7199824315385963</v>
+        <v>0.7191387572895791</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.228263180717343</v>
       </c>
       <c r="E21" t="n">
-        <v>4.745175883886327</v>
+        <v>4.731606265041594</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.081967250679402</v>
+        <v>-1.085461573128689</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8628120746436633</v>
+        <v>0.8620234910638916</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.35017571402221</v>
       </c>
       <c r="E22" t="n">
-        <v>4.890889130021617</v>
+        <v>4.8788872342217</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.249028918156893</v>
+        <v>-1.253885554155666</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9648903626982555</v>
+        <v>0.9630896848234876</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.469829653527575</v>
       </c>
       <c r="E23" t="n">
-        <v>4.936242916982775</v>
+        <v>4.926167620587329</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.501523621481221</v>
+        <v>-1.504060153295197</v>
       </c>
       <c r="G23" t="n">
-        <v>1.017654631682497</v>
+        <v>1.016700776094989</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.58098525171461</v>
       </c>
       <c r="E24" t="n">
-        <v>4.985527029689822</v>
+        <v>4.976553546679286</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.710112635435988</v>
+        <v>-1.711278196595311</v>
       </c>
       <c r="G24" t="n">
-        <v>1.115276871604687</v>
+        <v>1.113076392873109</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.677941836078823</v>
       </c>
       <c r="E25" t="n">
-        <v>4.951185080501283</v>
+        <v>4.943658121063223</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.873983766154603</v>
+        <v>-1.872060314788373</v>
       </c>
       <c r="G25" t="n">
-        <v>1.162555683951196</v>
+        <v>1.160303262588614</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.75644372979531</v>
       </c>
       <c r="E26" t="n">
-        <v>4.939790756082187</v>
+        <v>4.931908068322714</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.935857670803372</v>
+        <v>-1.933931858408461</v>
       </c>
       <c r="G26" t="n">
-        <v>1.192225944387714</v>
+        <v>1.189493447193136</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.814881918891175</v>
       </c>
       <c r="E27" t="n">
-        <v>4.843825958294727</v>
+        <v>4.837980051278216</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.023944502888723</v>
+        <v>-2.019974039655242</v>
       </c>
       <c r="G27" t="n">
-        <v>1.212086917660286</v>
+        <v>1.209603115486873</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.852738070159948</v>
       </c>
       <c r="E28" t="n">
-        <v>4.72631283873666</v>
+        <v>4.720918675207963</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.089867571727038</v>
+        <v>-2.084719742190824</v>
       </c>
       <c r="G28" t="n">
-        <v>1.19999058071309</v>
+        <v>1.198027778868828</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.868723493315332</v>
       </c>
       <c r="E29" t="n">
-        <v>4.602941220009112</v>
+        <v>4.598461561589891</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.183339123226358</v>
+        <v>-2.176893514924632</v>
       </c>
       <c r="G29" t="n">
-        <v>1.164808105313777</v>
+        <v>1.16339621016197</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.862974838915566</v>
       </c>
       <c r="E30" t="n">
-        <v>4.49825006021316</v>
+        <v>4.495300348379843</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.185787509969541</v>
+        <v>-2.179137279182046</v>
       </c>
       <c r="G30" t="n">
-        <v>1.118094365831815</v>
+        <v>1.116843020630381</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.835510879611285</v>
       </c>
       <c r="E31" t="n">
-        <v>4.309893488043593</v>
+        <v>4.30824391600447</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.149374938626932</v>
+        <v>-2.143151267021309</v>
       </c>
       <c r="G31" t="n">
-        <v>1.051267810017873</v>
+        <v>1.050562649451531</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.787837584753496</v>
       </c>
       <c r="E32" t="n">
-        <v>4.12274261452094</v>
+        <v>4.122992883561228</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.067075774850604</v>
+        <v>-2.061523422400216</v>
       </c>
       <c r="G32" t="n">
-        <v>1.023675254821472</v>
+        <v>1.023689420993564</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.721543546904944</v>
       </c>
       <c r="E33" t="n">
-        <v>3.906363779934857</v>
+        <v>3.907457723224161</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.010528350908316</v>
+        <v>-2.005306542473401</v>
       </c>
       <c r="G33" t="n">
-        <v>0.941802650227017</v>
+        <v>0.9416956169267685</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.638933985462231</v>
       </c>
       <c r="E34" t="n">
-        <v>3.690749918641724</v>
+        <v>3.693886938750477</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.911051129451673</v>
+        <v>-1.906108709410789</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8505079671724558</v>
+        <v>0.8511973875475856</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.544126641835845</v>
       </c>
       <c r="E35" t="n">
-        <v>3.452457589848892</v>
+        <v>3.454854820970633</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.847476497142339</v>
+        <v>-1.842360147988551</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7804814304849095</v>
+        <v>0.7818193467380151</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.441066778346329</v>
       </c>
       <c r="E36" t="n">
-        <v>3.218541034213275</v>
+        <v>3.220958727583593</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.764787763633489</v>
+        <v>-1.760996738579836</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7274212459058633</v>
+        <v>0.7286159264189306</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.333327608249694</v>
       </c>
       <c r="E37" t="n">
-        <v>3.03382989032864</v>
+        <v>3.03430209606503</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.689317481814924</v>
+        <v>-1.68686830806218</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6664673554334942</v>
+        <v>0.6676242594876503</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.22399930056869</v>
       </c>
       <c r="E38" t="n">
-        <v>2.79793636667667</v>
+        <v>2.800712936406644</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.621351336157161</v>
+        <v>-1.618655828411933</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5861750660368248</v>
+        <v>0.5877301969286699</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.116905209029306</v>
       </c>
       <c r="E39" t="n">
-        <v>2.54948217043672</v>
+        <v>2.55250743518786</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.570287794833484</v>
+        <v>-1.56817703519182</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5285171716044593</v>
+        <v>0.5295276918803343</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.014674132346733</v>
       </c>
       <c r="E40" t="n">
-        <v>2.30327882154023</v>
+        <v>2.306469358299107</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.498802929430053</v>
+        <v>-1.498226051422096</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5014141363547828</v>
+        <v>0.5021775356286136</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9188713591066172</v>
       </c>
       <c r="E41" t="n">
-        <v>2.101277077608107</v>
+        <v>2.105260920004119</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.475151718113389</v>
+        <v>-1.474764509409549</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4280569752065642</v>
+        <v>0.4293712811728503</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8299058959618121</v>
       </c>
       <c r="E42" t="n">
-        <v>1.896237476771872</v>
+        <v>1.900525104858296</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.440009380201669</v>
+        <v>-1.439772490323913</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4119815179207203</v>
+        <v>0.412587515282421</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7490508978301256</v>
       </c>
       <c r="E43" t="n">
-        <v>1.751468642109363</v>
+        <v>1.755010185132289</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.40553363938782</v>
+        <v>-1.404595523991525</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3663884800531246</v>
+        <v>0.367510755686612</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6759554221240297</v>
       </c>
       <c r="E44" t="n">
-        <v>1.515581414533878</v>
+        <v>1.520248381228535</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.365246619978129</v>
+        <v>-1.364519423144088</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3134951415009363</v>
+        <v>0.3142978912527996</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.6095771830915172</v>
       </c>
       <c r="E45" t="n">
-        <v>1.316294853585998</v>
+        <v>1.322158074812843</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.310022946116855</v>
+        <v>-1.309730965569854</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2968656294843945</v>
+        <v>0.2969600706316725</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5497395176291582</v>
       </c>
       <c r="E46" t="n">
-        <v>1.157111151810617</v>
+        <v>1.162486427109859</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.266438356648039</v>
+        <v>-1.264464536669928</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2742532707877888</v>
+        <v>0.2738015272999755</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4959631102837309</v>
       </c>
       <c r="E47" t="n">
-        <v>1.010247297697656</v>
+        <v>1.01510472070599</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.187842859864132</v>
+        <v>-1.186215324092707</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2450253097243563</v>
+        <v>0.2445499559497235</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4470007877217623</v>
       </c>
       <c r="E48" t="n">
-        <v>0.862182466995143</v>
+        <v>0.8672618266995803</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.170434208382546</v>
+        <v>-1.166948543038426</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2052057739936916</v>
+        <v>0.2049901333740733</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4010909501246532</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7323589438893836</v>
+        <v>0.7365725930771055</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.088650535868444</v>
+        <v>-1.086241499603293</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1657687249095028</v>
+        <v>0.1651375432418612</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.35771019344403</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5995526545487594</v>
+        <v>0.603539644983014</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.031164996529861</v>
+        <v>-1.028980257989496</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1229475347145176</v>
+        <v>0.1225839362974971</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3155472538430881</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4809754980646934</v>
+        <v>0.4857904225567521</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9687590734180921</v>
+        <v>-0.9677918386680529</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1028898090517829</v>
+        <v>0.1020618749939788</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2731425541422434</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3627745321506182</v>
+        <v>0.3665616221564676</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9423092561037554</v>
+        <v>-0.9413939639847191</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06055656478440093</v>
+        <v>0.06011111737307284</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2302018314048115</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2030446457401457</v>
+        <v>0.2075715247330065</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9230393270112317</v>
+        <v>-0.9221334790069232</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02324758955221073</v>
+        <v>0.02286352888661337</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1866825071730283</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1005460945801662</v>
+        <v>0.1040388430103324</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8756338061254583</v>
+        <v>-0.8748908691002043</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01293438798912818</v>
+        <v>-0.01378593233375185</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1427200877005105</v>
       </c>
       <c r="E55" t="n">
-        <v>0.006562986866423443</v>
+        <v>0.008541528901898408</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8484001272887137</v>
+        <v>-0.8484843373117034</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04133441499475649</v>
+        <v>-0.04214188680398374</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.09808557138885259</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.0907979658816306</v>
+        <v>-0.08845110337177127</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8464577876930287</v>
+        <v>-0.8465884312800966</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.04739596263088543</v>
+        <v>-0.0482301927651748</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.05326664192687144</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2256536281181883</v>
+        <v>-0.2216902479707532</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.834034841778163</v>
+        <v>-0.8346801896178963</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.08847313963946948</v>
+        <v>-0.09006132493286188</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.009312375209046745</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3138317533125742</v>
+        <v>-0.309983276560994</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7831601827490429</v>
+        <v>-0.7848317910558642</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.120271473927986</v>
+        <v>-0.1218675293169849</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.03353969753541269</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4355569480392416</v>
+        <v>-0.4299975125028075</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.8368885384450812</v>
+        <v>-0.8375929120018633</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.14752876305155</v>
+        <v>-0.1490146371020578</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.07498915260939117</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4956671642625935</v>
+        <v>-0.4909246446501145</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.8084326337606467</v>
+        <v>-0.8100239670922816</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1655985025640819</v>
+        <v>-0.1675597303892225</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1143341253552531</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5952097075127704</v>
+        <v>-0.5906969946920012</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8276419631170002</v>
+        <v>-0.8292773689840317</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1984120791858373</v>
+        <v>-0.2003292344755816</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1510810240940366</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.683413017013097</v>
+        <v>-0.6798494377224722</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8689009393340945</v>
+        <v>-0.8710313742147751</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2228534481013944</v>
+        <v>-0.2256536281181883</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1848664311268775</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7678276624884528</v>
+        <v>-0.7635730888035771</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8700334460918704</v>
+        <v>-0.8724353992709752</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2360641905864711</v>
+        <v>-0.2393475944735043</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2149714768951223</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.8175855549510102</v>
+        <v>-0.8133278332278918</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8779177078704655</v>
+        <v>-0.8803755387283766</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2633970326278575</v>
+        <v>-0.2662019347020154</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2407237516270452</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8948651717495101</v>
+        <v>-0.8912032162638039</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8802700794472494</v>
+        <v>-0.8832622897968421</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2750778285270299</v>
+        <v>-0.2782101265784183</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2613517659033435</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9223758779516035</v>
+        <v>-0.919651250852632</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.8912598809521708</v>
+        <v>-0.893985295060703</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2890126198079049</v>
+        <v>-0.2924140751290357</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2760344983230049</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9920002527536574</v>
+        <v>-0.9898564387104459</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8660921022121335</v>
+        <v>-0.86963364523506</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2823576669630456</v>
+        <v>-0.2863950260091819</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2840563688683806</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.012872533311665</v>
+        <v>-1.01123240538727</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.9214692429377342</v>
+        <v>-0.9247014912033252</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3033582300794394</v>
+        <v>-0.3077985380206286</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2846181358573308</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.025212056213102</v>
+        <v>-1.023361009726452</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.902326809394036</v>
+        <v>-0.9056298885200854</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3208975251480929</v>
+        <v>-0.3249459023280783</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.277292883453881</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.028413611105828</v>
+        <v>-1.02755734470384</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9361485452629845</v>
+        <v>-0.9395342603929022</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3202915277863922</v>
+        <v>-0.3247538719952796</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.262045110192855</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9942597572022845</v>
+        <v>-0.9942959596420745</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9806995824722792</v>
+        <v>-0.9834674950970864</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3163281476389571</v>
+        <v>-0.3213193622726015</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2392204833200388</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9299815383457284</v>
+        <v>-0.9316122221553959</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.03825516566176</v>
+        <v>-1.040971135655564</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2894313088941709</v>
+        <v>-0.2948774150538713</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.209546128402798</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8598621345300254</v>
+        <v>-0.8618548427375921</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.075375258599394</v>
+        <v>-1.077785868883666</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2939172633898778</v>
+        <v>-0.2985905261610196</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1737600175970739</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8006144807851462</v>
+        <v>-0.8035563225228571</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.121383050505453</v>
+        <v>-1.122796519676381</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2909691255756817</v>
+        <v>-0.2954157295933561</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1328142731139608</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6771783272736249</v>
+        <v>-0.6806301512066374</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.163078030019147</v>
+        <v>-1.163515607334869</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2587096036846241</v>
+        <v>-0.2641840421885079</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.08868315221743543</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5330815987759109</v>
+        <v>-0.5378414325987242</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.226485029292063</v>
+        <v>-1.225611448679742</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2287009291370265</v>
+        <v>-0.2343170293618273</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.04266870040292936</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4120599905964649</v>
+        <v>-0.4177044231654491</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.225681492530639</v>
+        <v>-1.224667824216522</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1910598358702418</v>
+        <v>-0.1965877910242498</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.003716560164726932</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2773979327118271</v>
+        <v>-0.2829369059996842</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.259024726586713</v>
+        <v>-1.257878053656845</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.1698892786887476</v>
+        <v>-0.1751307623626789</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.0488497477864017</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.1292921775121602</v>
+        <v>-0.1355441814619666</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.281569402461102</v>
+        <v>-1.278804637874538</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1333641649789651</v>
+        <v>-0.1388543436740619</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.09125392882146115</v>
       </c>
       <c r="E80" t="n">
-        <v>0.01181234063596124</v>
+        <v>0.005963285581207881</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.26820676713082</v>
+        <v>-1.265268073431352</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1067884261349243</v>
+        <v>-0.11181741722748</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.1296940425577997</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1637571284724805</v>
+        <v>0.1594222798124184</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.308297821159909</v>
+        <v>-1.30465554091322</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.08765150165815053</v>
+        <v>-0.09281743241425938</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.1626718596016099</v>
       </c>
       <c r="E82" t="n">
-        <v>0.274536594229623</v>
+        <v>0.2708439453710515</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.311223135696847</v>
+        <v>-1.308914836655459</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.01588095178420306</v>
+        <v>-0.02148131181779091</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.1887322084942529</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4358121674172127</v>
+        <v>0.4326295007539427</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.290708157479374</v>
+        <v>-1.287220131106572</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.003312409100617072</v>
+        <v>-0.008678240285131117</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.2070747844146165</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5680171814535001</v>
+        <v>0.5660213252076908</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.291544748642345</v>
+        <v>-1.287622292992064</v>
       </c>
       <c r="G84" t="n">
-        <v>0.07772596535954884</v>
+        <v>0.07138109428158576</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.2167239089106195</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7061200451373011</v>
+        <v>0.7039589168837552</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.239594247543816</v>
+        <v>-1.235694615170794</v>
       </c>
       <c r="G85" t="n">
-        <v>0.117526612860758</v>
+        <v>0.1111423913047624</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2171837769199466</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8927294560822254</v>
+        <v>0.8899324241036741</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.199981695327603</v>
+        <v>-1.195610644227751</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1615912781615708</v>
+        <v>0.1552841835425189</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.20795016631355</v>
       </c>
       <c r="E87" t="n">
-        <v>1.015269992713727</v>
+        <v>1.012389537721746</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.06528973107966</v>
+        <v>-1.062081880110449</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1911733935272959</v>
+        <v>0.1858406167443292</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1884534628555452</v>
       </c>
       <c r="E88" t="n">
-        <v>1.150160283370953</v>
+        <v>1.147278254359851</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9506877598864389</v>
+        <v>-0.9477530012347738</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2224869299264518</v>
+        <v>0.2176121927077836</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1575287063353348</v>
       </c>
       <c r="E89" t="n">
-        <v>1.254542935419129</v>
+        <v>1.252178758698936</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8657765113783127</v>
+        <v>-0.8626678236137438</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2344242909423962</v>
+        <v>0.2295086292265742</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1154081252095419</v>
       </c>
       <c r="E90" t="n">
-        <v>1.33181153408378</v>
+        <v>1.329519762243166</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7497469048420718</v>
+        <v>-0.7459157423008259</v>
       </c>
       <c r="G90" t="n">
-        <v>0.2004884386871534</v>
+        <v>0.1975277087199868</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.06210393352016824</v>
       </c>
       <c r="E91" t="n">
-        <v>1.322291866438154</v>
+        <v>1.321155424632575</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6099944691191477</v>
+        <v>-0.6051244539578433</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1953036197015889</v>
+        <v>0.1924514970537921</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.0006313554299246971</v>
       </c>
       <c r="E92" t="n">
-        <v>1.307598397940812</v>
+        <v>1.307527567080353</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4784993377065669</v>
+        <v>-0.4732641501091208</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1702751416537867</v>
+        <v>0.1678338379966493</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.07015542087966457</v>
       </c>
       <c r="E93" t="n">
-        <v>1.275822099919993</v>
+        <v>1.276990022107998</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3431179530834947</v>
+        <v>-0.3373649131951407</v>
       </c>
       <c r="G93" t="n">
-        <v>0.162948082644132</v>
+        <v>0.1610293533352664</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1417546688608088</v>
       </c>
       <c r="E94" t="n">
-        <v>1.194659377949245</v>
+        <v>1.196436445537193</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1933358675196426</v>
+        <v>-0.1882659519299331</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1448594549021445</v>
+        <v>0.1423410243080634</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2104546795177385</v>
       </c>
       <c r="E95" t="n">
-        <v>1.161682103338874</v>
+        <v>1.16389202618518</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1004939236688428</v>
+        <v>-0.09528234635821627</v>
       </c>
       <c r="G95" t="n">
-        <v>0.126273437117826</v>
+        <v>0.1240682363288837</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2733904588286854</v>
       </c>
       <c r="E96" t="n">
-        <v>1.121401380005668</v>
+        <v>1.122624392862919</v>
       </c>
       <c r="F96" t="n">
-        <v>0.006603911363577261</v>
+        <v>0.0112661560008699</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05780045730300343</v>
+        <v>0.05653966798684158</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3287595473496647</v>
       </c>
       <c r="E97" t="n">
-        <v>1.025808050730835</v>
+        <v>1.028266668598306</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06351257269420363</v>
+        <v>0.06696911868457994</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03267596408880186</v>
+        <v>0.0320920029947993</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3774000711192226</v>
       </c>
       <c r="E98" t="n">
-        <v>1.001138449042689</v>
+        <v>1.003323187583054</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09861319909920896</v>
+        <v>0.1007522910850566</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.007365508337966343</v>
+        <v>-0.007192366234623267</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.420941397232128</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9769914217028152</v>
+        <v>0.9782821173822818</v>
       </c>
       <c r="F99" t="n">
-        <v>0.164424512579912</v>
+        <v>0.1653642019953285</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.02560366789647741</v>
+        <v>-0.02484184264176788</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.462027919600111</v>
       </c>
       <c r="E100" t="n">
-        <v>0.88666003835049</v>
+        <v>0.8877256492956106</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1531986082067955</v>
+        <v>0.154106817239786</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.03659032136315622</v>
+        <v>-0.03545387955757712</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.5000128101581124</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8052344551864842</v>
+        <v>0.806317380341939</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1414926280016823</v>
+        <v>0.1418640965143093</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06542477764626352</v>
+        <v>-0.06425370742001581</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.5395435881631738</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6839625779667513</v>
+        <v>0.6843702489191682</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1372805528330817</v>
+        <v>0.1370963925958895</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08291370410303546</v>
+        <v>-0.0821141023894147</v>
       </c>
     </row>
   </sheetData>
